--- a/src/test/java/com/inetbanking/testData/DATA.xlsx
+++ b/src/test/java/com/inetbanking/testData/DATA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t xml:space="preserve">USERNAME </t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>mngr551045</t>
+  </si>
+  <si>
+    <t>mhmErym</t>
+  </si>
+  <si>
+    <t>mngr523038</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -404,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -425,7 +431,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
